--- a/croatia/data/ssp_croatia_transformation_cw_vf.xlsx
+++ b/croatia/data/ssp_croatia_transformation_cw_vf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarob\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2290E5DD-AB47-4D0E-BF70-8897FEC99E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF1B9AC6-5858-40BD-95DC-3DB1E6E18D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1438,7 +1438,7 @@
     <t>strategy_ndc</t>
   </si>
   <si>
-    <t>strategy_additional_action</t>
+    <t>strategy_additional_actions</t>
   </si>
 </sst>
 </file>
@@ -5123,10 +5123,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D68"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9178,8 +9178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C820030-40C3-4F3C-B910-13A38E6FDCE4}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="G1" s="40" t="str">
         <f>+main!P1</f>
-        <v>strategy_additional_action</v>
+        <v>strategy_additional_actions</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
